--- a/python_code/dataset.xlsx
+++ b/python_code/dataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
   <si>
     <t>Title</t>
   </si>
@@ -1588,6 +1588,9 @@
 "This allows Meta to intercept, monitor and record its users' interactions and communications with third parties," says the suit. In doing so the suit also says that it also that data collected to boost advertising revenue, contrary to user preference.
 Meta has not commented publicly on the suit. However, Krause's report says that the company acknowledged that it monitors browser activity, but denied the accusation of illegal data collection.</t>
   </si>
+  <si>
+    <t>INVOLVED</t>
+  </si>
 </sst>
 </file>
 
@@ -1625,9 +1628,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1924,1552 +1925,1556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>28</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>12</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>18</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
         <v>9</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
         <v>9</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>10</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
         <v>10</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
         <v>10</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
         <v>19</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>3</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
         <v>20</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+      <c r="L43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49">
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
         <v>18</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>2</v>
+      </c>
+      <c r="L52" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
         <v>18</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2</v>
+      </c>
+      <c r="L55" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60">
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
         <v>25</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
-      <c r="L64">
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
         <v>25</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>2</v>
-      </c>
-      <c r="L67">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
         <v>10</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>2</v>
-      </c>
-      <c r="L70">
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>2</v>
+      </c>
+      <c r="L70" s="1">
         <v>1</v>
       </c>
     </row>

--- a/python_code/dataset.xlsx
+++ b/python_code/dataset.xlsx
@@ -1628,7 +1628,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1926,1556 +1928,1385 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" customFormat="1">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" customFormat="1">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" customFormat="1">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" customFormat="1">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" customFormat="1">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" customFormat="1">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" customFormat="1">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>25</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" customFormat="1">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" customFormat="1">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" customFormat="1">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" customFormat="1">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" customFormat="1">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" customFormat="1">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" customFormat="1">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" customFormat="1">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" customFormat="1">
+      <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" customFormat="1">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" customFormat="1">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" customFormat="1">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customFormat="1">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>18</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" customFormat="1">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" customFormat="1">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" customFormat="1">
+      <c r="A25" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>9</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="K25" s="1">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" customFormat="1">
+      <c r="A26" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" customFormat="1">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" customFormat="1">
+      <c r="A28" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" customFormat="1">
+      <c r="A29" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>9</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" customFormat="1">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" customFormat="1">
+      <c r="A31" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" customFormat="1">
+      <c r="A32" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" customFormat="1">
+      <c r="A33" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>10</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" customFormat="1">
+      <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>2</v>
       </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" customFormat="1">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" customFormat="1">
+      <c r="A36" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" customFormat="1">
+      <c r="A37" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="s">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" customFormat="1">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="s">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" customFormat="1">
+      <c r="A39" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" customFormat="1">
+      <c r="A40" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>2</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" customFormat="1">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>20</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" customFormat="1">
+      <c r="A42" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" customFormat="1">
+      <c r="A43" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" customFormat="1">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" customFormat="1">
+      <c r="A45" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="s">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" customFormat="1">
+      <c r="A46" t="s">
         <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" customFormat="1">
+      <c r="A47" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1" t="s">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" customFormat="1">
+      <c r="A48" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1" t="s">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" customFormat="1">
+      <c r="A49" t="s">
         <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1" t="s">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" customFormat="1">
+      <c r="A50" t="s">
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1" t="s">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" customFormat="1">
+      <c r="A51" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1" t="s">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" customFormat="1">
+      <c r="A52" t="s">
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
         <v>18</v>
       </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1">
-        <v>2</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" customFormat="1">
+      <c r="A53" t="s">
         <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
         <v>18</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="1" t="s">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" customFormat="1">
+      <c r="A54" t="s">
         <v>124</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="1" t="s">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" customFormat="1">
+      <c r="A55" t="s">
         <v>126</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>2</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="1" t="s">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" customFormat="1">
+      <c r="A56" t="s">
         <v>128</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="1" t="s">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" customFormat="1">
+      <c r="A57" t="s">
         <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1" t="s">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" customFormat="1">
+      <c r="A58" t="s">
         <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>2</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1" t="s">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" customFormat="1">
+      <c r="A59" t="s">
         <v>133</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="1" t="s">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" customFormat="1">
+      <c r="A60" t="s">
         <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="1" t="s">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" customFormat="1">
+      <c r="A61" t="s">
         <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <v>2</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="1" t="s">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" customFormat="1">
+      <c r="A62" t="s">
         <v>139</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="1" t="s">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" customFormat="1">
+      <c r="A63" t="s">
         <v>141</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="1" t="s">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" customFormat="1">
+      <c r="A64" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>2</v>
       </c>
-      <c r="L64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="1" t="s">
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" customFormat="1">
+      <c r="A65" t="s">
         <v>145</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>25</v>
       </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="1" t="s">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" customFormat="1">
+      <c r="A66" t="s">
         <v>147</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
-      <c r="L66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1" t="s">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" customFormat="1">
+      <c r="A67" t="s">
         <v>149</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>2</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1" t="s">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" customFormat="1">
+      <c r="A68" t="s">
         <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="1" t="s">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" customFormat="1">
+      <c r="A69" t="s">
         <v>153</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1" t="s">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" customFormat="1">
+      <c r="A70" t="s">
         <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
         <v>10</v>
       </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="K70" s="1">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
         <v>2</v>
       </c>
-      <c r="L70" s="1">
-        <v>1</v>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
